--- a/HLJT_local/hljt_files/Instructions_right_hand.xlsx
+++ b/HLJT_local/hljt_files/Instructions_right_hand.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uclouvain-my.sharepoint.com/personal/marcos_morenoverdu_uclouvain_be/Documents/BAS-Lab/Project 4 - HLJT/PyschoPy Experiments/HLJT_online/hljt_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uclouvain-my.sharepoint.com/personal/marcos_morenoverdu_uclouvain_be/Documents/BAS-Lab/Github_repos/HLJT_local/hljt_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="13_ncr:1_{B6C2750F-7572-42CC-AC1E-BD073640EEDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19ABBF8A-6FF8-4AF2-816C-C98C63FB6B9F}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:1_{B6C2750F-7572-42CC-AC1E-BD073640EEDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{205FE02B-F2A1-43B0-89D0-D1C7265F117C}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3128DB0A-6163-4D40-98DA-1667AB584357}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3128DB0A-6163-4D40-98DA-1667AB584357}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,16 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
-    <t>instr_msg_en</t>
-  </si>
-  <si>
     <t>hljt_instr_images/instr_pic1.jpg</t>
-  </si>
-  <si>
-    <t>instr_msg_es</t>
-  </si>
-  <si>
-    <t>instr_msg_fr</t>
   </si>
   <si>
     <t>hljt_instr_images/instr_pic3.jpg</t>
@@ -274,6 +265,15 @@
 Main gauche = G | H = Main droite.
 Vous devez garder votre autre main sur la table pendant la tâche.
 Gardez vos mains dans la même position et aussi immobiles que possible.</t>
+  </si>
+  <si>
+    <t>instr_msg_EN</t>
+  </si>
+  <si>
+    <t>instr_msg_ES</t>
+  </si>
+  <si>
+    <t>instr_msg_FR</t>
   </si>
 </sst>
 </file>
@@ -359,8 +359,12 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -659,10 +663,10 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.81640625" customWidth="1"/>
     <col min="2" max="2" width="33.90625" customWidth="1"/>
@@ -674,56 +678,56 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E2">
+        <v>0.6</v>
+      </c>
+      <c r="F2">
         <v>0.5</v>
-      </c>
-      <c r="F2">
-        <v>0.6</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="E3">
         <v>0.6</v>
@@ -734,16 +738,16 @@
     </row>
     <row r="4" spans="1:6" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <v>0.6</v>

--- a/HLJT_local/hljt_files/Instructions_right_hand.xlsx
+++ b/HLJT_local/hljt_files/Instructions_right_hand.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uclouvain-my.sharepoint.com/personal/marcos_morenoverdu_uclouvain_be/Documents/BAS-Lab/Github_repos/HLJT_local/hljt_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uclouvain-my.sharepoint.com/personal/marcos_morenoverdu_uclouvain_be/Documents/BAS-Lab/Github_repos/HLJT/HLJT_local/hljt_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:1_{B6C2750F-7572-42CC-AC1E-BD073640EEDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{205FE02B-F2A1-43B0-89D0-D1C7265F117C}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="13_ncr:1_{B6C2750F-7572-42CC-AC1E-BD073640EEDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{191BED47-55F1-4F80-BA02-0931A168B528}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3128DB0A-6163-4D40-98DA-1667AB584357}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3128DB0A-6163-4D40-98DA-1667AB584357}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,21 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>hljt_instr_images/instr_pic1.jpg</t>
   </si>
   <si>
     <t>hljt_instr_images/instr_pic3.jpg</t>
-  </si>
-  <si>
-    <t>images_sizeW</t>
-  </si>
-  <si>
-    <t>images_sizeH</t>
-  </si>
-  <si>
-    <t>instr_pics</t>
   </si>
   <si>
     <r>
@@ -267,20 +258,53 @@
 Gardez vos mains dans la même position et aussi immobiles que possible.</t>
   </si>
   <si>
-    <t>instr_msg_EN</t>
-  </si>
-  <si>
-    <t>instr_msg_ES</t>
-  </si>
-  <si>
-    <t>instr_msg_FR</t>
+    <t>inst_msg_EN</t>
+  </si>
+  <si>
+    <t>inst_msg_ES</t>
+  </si>
+  <si>
+    <t>inst_msg_FR</t>
+  </si>
+  <si>
+    <t>image_w</t>
+  </si>
+  <si>
+    <t>image_h</t>
+  </si>
+  <si>
+    <t>inst_pics</t>
+  </si>
+  <si>
+    <t>inst_msg_DE</t>
+  </si>
+  <si>
+    <t>Anweisungen:
+In dieser Aufgabe sehen Sie Bilder von linken oder rechten Händen, deren Handflächen nach oben oder unten zeigen. Die Bilder werden in verschiedenen Winkeln gedreht.
+Ihre Aufgabe ist es zu bestimmen, ob das Bild einer linken oder rechten Hand entspricht.
+Ihr Ziel ist es, sowohl SCHNELL als auch GENAU zu antworten.
+Jedes Bild wird angezeigt, bis Sie geantwortet haben. Das nächste Bild erscheint automatisch.</t>
+  </si>
+  <si>
+    <t>Bitte verwenden Sie nur Ihren ZEIGEFINGER und MITTELFINGER der RECHTEN HAND, um zu antworten.
+Legen Sie Ihren Zeigefinger auf die Taste „G“ und den Mittelfinger auf die Taste „H“ Ihrer Tastatur.
+Zum Antworten:
+Linke Hand = G | H = Rechte Hand
+Sie müssen Ihre Hand während der gesamten Aufgabe auf der Tastatur halten.
+Halten Sie Ihre andere Hand auf dem Tisch, in derselben Position und so ruhig wie möglich.</t>
+  </si>
+  <si>
+    <t>Nach jedem Bild erhalten Sie ein kurzes Feedback zu Ihrer Antwort:
+Wenn Sie korrekt antworten, wird das entsprechende Feld grün.
+Wenn Sie falsch antworten, wird das entsprechende Feld rot.
+Denken Sie daran, dass Ihr Ziel darin besteht, so genau und schnell wie möglich zu antworten.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,13 +340,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -337,11 +374,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -357,10 +395,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -660,99 +694,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D84571D-E185-45F8-BE88-DC2A982E2C1F}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
-    <col min="2" max="2" width="33.90625" customWidth="1"/>
-    <col min="3" max="3" width="12.54296875" customWidth="1"/>
-    <col min="4" max="4" width="14.6328125" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="12.26953125" customWidth="1"/>
+    <col min="1" max="1" width="33.90625" customWidth="1"/>
+    <col min="2" max="2" width="16.81640625" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" customWidth="1"/>
+    <col min="4" max="5" width="15.36328125" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" customWidth="1"/>
+    <col min="7" max="7" width="8.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2">
+        <v>0.6</v>
+      </c>
+      <c r="G2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>0.6</v>
+      </c>
+      <c r="G3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2">
+      <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4">
         <v>0.6</v>
       </c>
-      <c r="F2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3">
-        <v>0.6</v>
-      </c>
-      <c r="F3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4">
-        <v>0.6</v>
-      </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.5</v>
       </c>
     </row>
